--- a/data/extraction_grid_scenario.xlsx
+++ b/data/extraction_grid_scenario.xlsx
@@ -763,9 +763,6 @@
     <t>emission_sector_cat</t>
   </si>
   <si>
-    <t>Food system</t>
-  </si>
-  <si>
     <t>conversion_factor</t>
   </si>
   <si>
@@ -826,9 +823,6 @@
     <t>Energy, transport, industry, agriculture</t>
   </si>
   <si>
-    <t>Energy, industry, housing, transport, food system, solvent</t>
-  </si>
-  <si>
     <t xml:space="preserve">Energy, industry, housing, transport, shipping, land use, waste </t>
   </si>
   <si>
@@ -1163,6 +1157,12 @@
   </si>
   <si>
     <t>only_CCS</t>
+  </si>
+  <si>
+    <t>AFOLU</t>
+  </si>
+  <si>
+    <t>Energy, industry, housing, transport, AFOLU, solvent</t>
   </si>
 </sst>
 </file>
@@ -1681,30 +1681,6 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -2047,6 +2023,30 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -2207,21 +2207,21 @@
     <tableColumn id="22" name="rank_pop" dataDxfId="16"/>
     <tableColumn id="4" name="scenario" dataDxfId="15"/>
     <tableColumn id="5" name="scenario_cat" dataDxfId="14"/>
-    <tableColumn id="10" name="only_CCS" dataDxfId="0"/>
-    <tableColumn id="8" name="emission_sector" dataDxfId="13"/>
+    <tableColumn id="10" name="only_CCS" dataDxfId="13"/>
+    <tableColumn id="8" name="emission_sector" dataDxfId="12"/>
     <tableColumn id="20" name="emission_sector_cat"/>
-    <tableColumn id="9" name="pathway_co_benefits" dataDxfId="12"/>
-    <tableColumn id="7" name="pathway_co_benefits2" dataDxfId="11"/>
-    <tableColumn id="6" name="scenario_yr" dataDxfId="10"/>
-    <tableColumn id="2" name="n_prev" dataDxfId="9"/>
-    <tableColumn id="17" name="n_death" dataDxfId="8"/>
-    <tableColumn id="16" name="mortality_proj" dataDxfId="7"/>
-    <tableColumn id="24" name="conversion_factor" dataDxfId="6"/>
-    <tableColumn id="12" name="lifexp_months" dataDxfId="5"/>
-    <tableColumn id="11" name="yll" dataDxfId="4"/>
-    <tableColumn id="13" name="monetary_bilions ($)" dataDxfId="3"/>
-    <tableColumn id="23" name="HIA_type" dataDxfId="2"/>
-    <tableColumn id="27" name="include_mortality" dataDxfId="1"/>
+    <tableColumn id="9" name="pathway_co_benefits" dataDxfId="11"/>
+    <tableColumn id="7" name="pathway_co_benefits2" dataDxfId="10"/>
+    <tableColumn id="6" name="scenario_yr" dataDxfId="9"/>
+    <tableColumn id="2" name="n_prev" dataDxfId="8"/>
+    <tableColumn id="17" name="n_death" dataDxfId="7"/>
+    <tableColumn id="16" name="mortality_proj" dataDxfId="6"/>
+    <tableColumn id="24" name="conversion_factor" dataDxfId="5"/>
+    <tableColumn id="12" name="lifexp_months" dataDxfId="4"/>
+    <tableColumn id="11" name="yll" dataDxfId="3"/>
+    <tableColumn id="13" name="monetary_bilions ($)" dataDxfId="2"/>
+    <tableColumn id="23" name="HIA_type" dataDxfId="1"/>
+    <tableColumn id="27" name="include_mortality" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2523,7 +2523,7 @@
         <v>67</v>
       </c>
       <c r="D1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>95</v>
@@ -2538,7 +2538,7 @@
         <v>118</v>
       </c>
       <c r="I1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="J1" t="s">
         <v>183</v>
@@ -2550,7 +2550,7 @@
         <v>197</v>
       </c>
       <c r="M1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="N1" t="s">
         <v>124</v>
@@ -2565,7 +2565,7 @@
         <v>110</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>207</v>
@@ -2577,10 +2577,10 @@
         <v>217</v>
       </c>
       <c r="V1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="W1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="29" customFormat="1" ht="144.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2609,7 +2609,7 @@
         <v>121</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J2" s="51" t="s">
         <v>184</v>
@@ -2647,10 +2647,10 @@
         <v>218</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="W2" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:23" s="29" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
@@ -2679,7 +2679,7 @@
         <v>181</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J3" s="57" t="s">
         <v>185</v>
@@ -2713,10 +2713,10 @@
         <v>208</v>
       </c>
       <c r="V3" s="42" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="W3" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:23" s="29" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -2745,13 +2745,13 @@
         <v>119</v>
       </c>
       <c r="I4" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>274</v>
-      </c>
       <c r="K4" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>199</v>
@@ -2779,10 +2779,10 @@
         <v>209</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W4" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:23" s="29" customFormat="1" ht="250.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2811,13 +2811,13 @@
         <v>119</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>199</v>
@@ -2845,10 +2845,10 @@
         <v>210</v>
       </c>
       <c r="V5" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W5" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:23" s="29" customFormat="1" ht="218.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2877,13 +2877,13 @@
         <v>119</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>199</v>
@@ -2911,18 +2911,18 @@
         <v>211</v>
       </c>
       <c r="V6" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W6" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:23" s="29" customFormat="1" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="83" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B7" s="85" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>27</v>
@@ -2933,19 +2933,19 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="10" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>119</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>199</v>
@@ -2972,10 +2972,10 @@
       <c r="T7" s="33"/>
       <c r="U7" s="33"/>
       <c r="V7" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W7" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:23" s="26" customFormat="1" ht="220.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -3004,13 +3004,13 @@
         <v>181</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>186</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>199</v>
@@ -3037,10 +3037,10 @@
       <c r="T8" s="28"/>
       <c r="U8" s="28"/>
       <c r="V8" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W8" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:23" s="75" customFormat="1" ht="289.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -3063,13 +3063,13 @@
         <v>48</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>181</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>184</v>
@@ -3094,10 +3094,10 @@
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
       <c r="V9" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W9" s="82" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:23" s="75" customFormat="1" ht="289.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -3120,13 +3120,13 @@
         <v>48</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>181</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>184</v>
@@ -3151,10 +3151,10 @@
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
       <c r="V10" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W10" s="82" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:23" s="75" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -3177,13 +3177,13 @@
         <v>48</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>181</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>184</v>
@@ -3208,10 +3208,10 @@
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
       <c r="V11" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W11" s="82" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:23" s="75" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -3234,13 +3234,13 @@
         <v>48</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>181</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>184</v>
@@ -3265,10 +3265,10 @@
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
       <c r="V12" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W12" s="82" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:23" s="75" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -3297,13 +3297,13 @@
         <v>181</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J13" s="69" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K13" s="69" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L13" s="73" t="s">
         <v>199</v>
@@ -3332,10 +3332,10 @@
       <c r="T13" s="69"/>
       <c r="U13" s="69"/>
       <c r="V13" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W13" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:23" s="26" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -3364,13 +3364,13 @@
         <v>181</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J14" s="69" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K14" s="69" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L14" s="73" t="s">
         <v>199</v>
@@ -3399,10 +3399,10 @@
       <c r="T14" s="69"/>
       <c r="U14" s="69"/>
       <c r="V14" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W14" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:23" s="26" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -3425,19 +3425,19 @@
         <v>32</v>
       </c>
       <c r="G15" s="69" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H15" s="69" t="s">
         <v>181</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J15" s="69" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K15" s="69" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L15" s="73" t="s">
         <v>199</v>
@@ -3466,10 +3466,10 @@
       <c r="T15" s="69"/>
       <c r="U15" s="69"/>
       <c r="V15" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W15" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16" spans="1:23" s="26" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -3492,19 +3492,19 @@
         <v>32</v>
       </c>
       <c r="G16" s="69" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H16" s="69" t="s">
         <v>181</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J16" s="69" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K16" s="69" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L16" s="73" t="s">
         <v>199</v>
@@ -3533,10 +3533,10 @@
       <c r="T16" s="69"/>
       <c r="U16" s="69"/>
       <c r="V16" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W16" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:23" s="26" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -3559,19 +3559,19 @@
         <v>31</v>
       </c>
       <c r="G17" s="33" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H17" s="33" t="s">
         <v>181</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J17" s="33" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K17" s="33" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="L17" s="22" t="s">
         <v>200</v>
@@ -3588,10 +3588,10 @@
       <c r="T17" s="46"/>
       <c r="U17" s="46"/>
       <c r="V17" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="W17" s="82" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:23" s="26" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -3614,19 +3614,19 @@
         <v>31</v>
       </c>
       <c r="G18" s="33" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="H18" s="33" t="s">
         <v>181</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J18" s="33" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K18" s="33" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="L18" s="22" t="s">
         <v>200</v>
@@ -3643,10 +3643,10 @@
       <c r="T18" s="46"/>
       <c r="U18" s="46"/>
       <c r="V18" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="W18" s="82" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="19" spans="1:23" s="26" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -3669,19 +3669,19 @@
         <v>31</v>
       </c>
       <c r="G19" s="33" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="H19" s="33" t="s">
         <v>181</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J19" s="22" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K19" s="22" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="L19" s="22" t="s">
         <v>200</v>
@@ -3698,10 +3698,10 @@
       <c r="T19" s="46"/>
       <c r="U19" s="46"/>
       <c r="V19" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="W19" s="82" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20" spans="1:23" s="36" customFormat="1" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -3724,19 +3724,19 @@
         <v>31</v>
       </c>
       <c r="G20" s="33" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="H20" s="33" t="s">
         <v>181</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J20" s="33" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K20" s="33" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="L20" s="33" t="s">
         <v>200</v>
@@ -3753,15 +3753,15 @@
       <c r="T20" s="46"/>
       <c r="U20" s="46"/>
       <c r="V20" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="W20" s="82" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:23" s="36" customFormat="1" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="28" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>13</v>
@@ -3785,13 +3785,13 @@
         <v>181</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="L21" s="5" t="s">
         <v>199</v>
@@ -3819,15 +3819,15 @@
         <v>1294</v>
       </c>
       <c r="V21" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W21" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22" spans="1:23" s="36" customFormat="1" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="28" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>13</v>
@@ -3851,13 +3851,13 @@
         <v>181</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="L22" s="4" t="s">
         <v>199</v>
@@ -3885,10 +3885,10 @@
         <v>1425</v>
       </c>
       <c r="V22" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W22" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" spans="1:23" s="26" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -3902,7 +3902,7 @@
         <v>59</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E23" s="47">
         <v>3870</v>
@@ -3917,7 +3917,7 @@
         <v>181</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J23" s="33" t="s">
         <v>184</v>
@@ -3949,10 +3949,10 @@
       <c r="T23" s="20"/>
       <c r="U23" s="20"/>
       <c r="V23" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W23" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="24" spans="1:23" s="29" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -3966,7 +3966,7 @@
         <v>59</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E24" s="47">
         <v>3870</v>
@@ -3981,13 +3981,13 @@
         <v>181</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J24" s="33" t="s">
         <v>204</v>
       </c>
       <c r="K24" s="33" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L24" s="33" t="s">
         <v>205</v>
@@ -4013,10 +4013,10 @@
       <c r="T24" s="20"/>
       <c r="U24" s="20"/>
       <c r="V24" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W24" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="25" spans="1:23" s="29" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -4030,7 +4030,7 @@
         <v>59</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E25" s="47">
         <v>3870</v>
@@ -4045,13 +4045,13 @@
         <v>129</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J25" s="22" t="s">
         <v>204</v>
       </c>
       <c r="K25" s="22" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L25" s="33" t="s">
         <v>205</v>
@@ -4077,10 +4077,10 @@
       <c r="T25" s="20"/>
       <c r="U25" s="20"/>
       <c r="V25" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W25" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="26" spans="1:23" s="29" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -4094,7 +4094,7 @@
         <v>59</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E26" s="47">
         <v>3870</v>
@@ -4109,7 +4109,7 @@
         <v>129</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J26" s="22" t="s">
         <v>184</v>
@@ -4141,10 +4141,10 @@
       <c r="T26" s="20"/>
       <c r="U26" s="20"/>
       <c r="V26" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W26" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="27" spans="1:23" s="29" customFormat="1" ht="216" customHeight="1" x14ac:dyDescent="0.3">
@@ -4158,7 +4158,7 @@
         <v>59</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E27" s="47">
         <v>3870</v>
@@ -4173,13 +4173,13 @@
         <v>181</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J27" s="33" t="s">
         <v>202</v>
       </c>
       <c r="K27" s="33" t="s">
-        <v>245</v>
+        <v>377</v>
       </c>
       <c r="L27" s="22" t="s">
         <v>202</v>
@@ -4205,10 +4205,10 @@
       <c r="T27" s="20"/>
       <c r="U27" s="20"/>
       <c r="V27" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W27" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="28" spans="1:23" s="29" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -4222,7 +4222,7 @@
         <v>59</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E28" s="47">
         <v>3870</v>
@@ -4237,13 +4237,13 @@
         <v>129</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J28" s="22" t="s">
         <v>202</v>
       </c>
       <c r="K28" s="22" t="s">
-        <v>245</v>
+        <v>377</v>
       </c>
       <c r="L28" s="33" t="s">
         <v>202</v>
@@ -4269,41 +4269,41 @@
       <c r="T28" s="20"/>
       <c r="U28" s="20"/>
       <c r="V28" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W28" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="29" spans="1:23" s="75" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="83" t="s">
+        <v>276</v>
+      </c>
+      <c r="B29" s="85" t="s">
+        <v>277</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="B29" s="85" t="s">
-        <v>279</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>280</v>
-      </c>
       <c r="D29" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="10" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H29" s="24" t="s">
         <v>119</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="L29" s="4" t="s">
         <v>199</v>
@@ -4322,10 +4322,10 @@
       <c r="T29" s="39"/>
       <c r="U29" s="39"/>
       <c r="V29" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="W29" s="82" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="30" spans="1:23" s="29" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -4339,7 +4339,7 @@
         <v>60</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E30" s="23">
         <v>6000</v>
@@ -4354,7 +4354,7 @@
         <v>119</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J30" s="33" t="s">
         <v>185</v>
@@ -4388,10 +4388,10 @@
         <v>23000</v>
       </c>
       <c r="V30" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W30" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="31" spans="1:23" s="75" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -4420,13 +4420,13 @@
         <v>181</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J31" s="33" t="s">
         <v>187</v>
       </c>
       <c r="K31" s="33" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L31" s="22" t="s">
         <v>199</v>
@@ -4453,10 +4453,10 @@
       <c r="T31" s="55"/>
       <c r="U31" s="55"/>
       <c r="V31" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W31" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="32" spans="1:23" s="75" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -4479,19 +4479,19 @@
         <v>43</v>
       </c>
       <c r="G32" s="33" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H32" s="33" t="s">
         <v>181</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J32" s="33" t="s">
         <v>188</v>
       </c>
       <c r="K32" s="33" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L32" s="22" t="s">
         <v>199</v>
@@ -4508,10 +4508,10 @@
       <c r="T32" s="46"/>
       <c r="U32" s="46"/>
       <c r="V32" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W32" s="82" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="33" spans="1:23" s="75" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -4534,19 +4534,19 @@
         <v>43</v>
       </c>
       <c r="G33" s="33" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H33" s="33" t="s">
         <v>181</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J33" s="33" t="s">
         <v>188</v>
       </c>
       <c r="K33" s="33" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L33" s="22" t="s">
         <v>199</v>
@@ -4563,10 +4563,10 @@
       <c r="T33" s="46"/>
       <c r="U33" s="46"/>
       <c r="V33" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W33" s="82" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="34" spans="1:23" s="75" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -4589,19 +4589,19 @@
         <v>43</v>
       </c>
       <c r="G34" s="33" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H34" s="33" t="s">
         <v>181</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J34" s="33" t="s">
         <v>188</v>
       </c>
       <c r="K34" s="33" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L34" s="22" t="s">
         <v>199</v>
@@ -4618,10 +4618,10 @@
       <c r="T34" s="46"/>
       <c r="U34" s="46"/>
       <c r="V34" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W34" s="82" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="35" spans="1:23" s="75" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -4644,19 +4644,19 @@
         <v>43</v>
       </c>
       <c r="G35" s="33" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H35" s="33" t="s">
         <v>181</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J35" s="33" t="s">
         <v>188</v>
       </c>
       <c r="K35" s="33" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L35" s="22" t="s">
         <v>199</v>
@@ -4673,10 +4673,10 @@
       <c r="T35" s="46"/>
       <c r="U35" s="46"/>
       <c r="V35" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W35" s="82" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="36" spans="1:23" s="75" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -4705,13 +4705,13 @@
         <v>119</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J36" s="33" t="s">
-        <v>266</v>
+        <v>378</v>
       </c>
       <c r="K36" s="33" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L36" s="22" t="s">
         <v>199</v>
@@ -4737,10 +4737,10 @@
       <c r="T36" s="46"/>
       <c r="U36" s="46"/>
       <c r="V36" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W36" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="37" spans="1:23" s="75" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -4769,13 +4769,13 @@
         <v>119</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J37" s="33" t="s">
-        <v>266</v>
+        <v>378</v>
       </c>
       <c r="K37" s="33" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L37" s="22" t="s">
         <v>199</v>
@@ -4801,10 +4801,10 @@
       <c r="T37" s="46"/>
       <c r="U37" s="46"/>
       <c r="V37" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W37" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="38" spans="1:23" s="75" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -4827,13 +4827,13 @@
         <v>46</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>119</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J38" s="5" t="s">
         <v>184</v>
@@ -4858,18 +4858,18 @@
       <c r="T38" s="28"/>
       <c r="U38" s="28"/>
       <c r="V38" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W38" s="82" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="39" spans="1:23" s="29" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A39" s="83" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B39" s="85" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>27</v>
@@ -4880,13 +4880,13 @@
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="10" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H39" s="10" t="s">
         <v>119</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J39" s="57" t="s">
         <v>185</v>
@@ -4911,10 +4911,10 @@
       <c r="T39" s="39"/>
       <c r="U39" s="39"/>
       <c r="V39" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W39" s="82" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="40" spans="1:23" s="29" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -4937,19 +4937,19 @@
         <v>1</v>
       </c>
       <c r="G40" s="69" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H40" s="69" t="s">
         <v>181</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J40" s="69" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K40" s="69" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="L40" s="73" t="s">
         <v>199</v>
@@ -4976,10 +4976,10 @@
       <c r="T40" s="76"/>
       <c r="U40" s="76"/>
       <c r="V40" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W40" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="41" spans="1:23" s="26" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -4987,7 +4987,7 @@
         <v>90</v>
       </c>
       <c r="B41" s="40" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>25</v>
@@ -5006,7 +5006,7 @@
         <v>181</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J41" s="4" t="s">
         <v>185</v>
@@ -5029,10 +5029,10 @@
       <c r="T41" s="28"/>
       <c r="U41" s="28"/>
       <c r="V41" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W41" s="82" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="42" spans="1:23" s="26" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -5040,7 +5040,7 @@
         <v>33</v>
       </c>
       <c r="B42" s="70" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C42" s="73" t="s">
         <v>64</v>
@@ -5061,7 +5061,7 @@
         <v>121</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J42" s="73" t="s">
         <v>203</v>
@@ -5099,10 +5099,10 @@
       </c>
       <c r="U42" s="76"/>
       <c r="V42" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="W42" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="43" spans="1:23" s="26" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -5110,7 +5110,7 @@
         <v>33</v>
       </c>
       <c r="B43" s="70" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C43" s="73" t="s">
         <v>64</v>
@@ -5131,13 +5131,13 @@
         <v>121</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J43" s="73" t="s">
         <v>203</v>
       </c>
       <c r="K43" s="73" t="s">
-        <v>245</v>
+        <v>377</v>
       </c>
       <c r="L43" s="73" t="s">
         <v>202</v>
@@ -5169,10 +5169,10 @@
       </c>
       <c r="U43" s="76"/>
       <c r="V43" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="W43" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="44" spans="1:23" s="26" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -5180,7 +5180,7 @@
         <v>33</v>
       </c>
       <c r="B44" s="70" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C44" s="73" t="s">
         <v>64</v>
@@ -5201,7 +5201,7 @@
         <v>119</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J44" s="73" t="s">
         <v>203</v>
@@ -5239,10 +5239,10 @@
       </c>
       <c r="U44" s="76"/>
       <c r="V44" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="W44" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="45" spans="1:23" s="26" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
@@ -5250,7 +5250,7 @@
         <v>33</v>
       </c>
       <c r="B45" s="70" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C45" s="73" t="s">
         <v>64</v>
@@ -5271,13 +5271,13 @@
         <v>121</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J45" s="73" t="s">
         <v>203</v>
       </c>
       <c r="K45" s="73" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L45" s="69" t="s">
         <v>199</v>
@@ -5309,10 +5309,10 @@
       </c>
       <c r="U45" s="76"/>
       <c r="V45" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="W45" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="46" spans="1:23" s="26" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -5320,7 +5320,7 @@
         <v>33</v>
       </c>
       <c r="B46" s="70" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C46" s="73" t="s">
         <v>64</v>
@@ -5341,7 +5341,7 @@
         <v>121</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J46" s="73" t="s">
         <v>203</v>
@@ -5379,10 +5379,10 @@
       </c>
       <c r="U46" s="76"/>
       <c r="V46" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="W46" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="47" spans="1:23" s="29" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -5390,7 +5390,7 @@
         <v>240</v>
       </c>
       <c r="B47" s="70" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C47" s="73" t="s">
         <v>64</v>
@@ -5411,7 +5411,7 @@
         <v>119</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J47" s="73" t="s">
         <v>203</v>
@@ -5449,10 +5449,10 @@
       </c>
       <c r="U47" s="76"/>
       <c r="V47" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="W47" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="48" spans="1:23" s="29" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -5460,7 +5460,7 @@
         <v>240</v>
       </c>
       <c r="B48" s="70" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C48" s="69" t="s">
         <v>64</v>
@@ -5481,13 +5481,13 @@
         <v>119</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J48" s="69" t="s">
         <v>203</v>
       </c>
       <c r="K48" s="69" t="s">
-        <v>245</v>
+        <v>377</v>
       </c>
       <c r="L48" s="89" t="s">
         <v>202</v>
@@ -5519,10 +5519,10 @@
       </c>
       <c r="U48" s="76"/>
       <c r="V48" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="W48" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="49" spans="1:23" s="26" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -5530,7 +5530,7 @@
         <v>240</v>
       </c>
       <c r="B49" s="70" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C49" s="73" t="s">
         <v>64</v>
@@ -5551,13 +5551,13 @@
         <v>119</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J49" s="73" t="s">
         <v>203</v>
       </c>
       <c r="K49" s="73" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L49" s="73" t="s">
         <v>199</v>
@@ -5589,10 +5589,10 @@
       </c>
       <c r="U49" s="76"/>
       <c r="V49" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="W49" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="50" spans="1:23" s="26" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
@@ -5606,7 +5606,7 @@
         <v>81</v>
       </c>
       <c r="D50" s="51" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E50" s="52">
         <v>4680</v>
@@ -5621,13 +5621,13 @@
         <v>181</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J50" s="4" t="s">
         <v>189</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L50" s="4" t="s">
         <v>199</v>
@@ -5653,41 +5653,41 @@
       <c r="T50" s="28"/>
       <c r="U50" s="28"/>
       <c r="V50" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W50" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="51" spans="1:23" s="26" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A51" s="83" t="s">
+        <v>285</v>
+      </c>
+      <c r="B51" s="85" t="s">
+        <v>286</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="B51" s="85" t="s">
-        <v>288</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>289</v>
-      </c>
       <c r="D51" s="4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="10" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H51" s="10" t="s">
         <v>181</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K51" s="66" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L51" s="4" t="s">
         <v>199</v>
@@ -5708,41 +5708,41 @@
       <c r="T51" s="39"/>
       <c r="U51" s="39"/>
       <c r="V51" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W51" s="82" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="52" spans="1:23" s="26" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A52" s="83" t="s">
+        <v>285</v>
+      </c>
+      <c r="B52" s="85" t="s">
+        <v>286</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="B52" s="85" t="s">
-        <v>288</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>289</v>
-      </c>
       <c r="D52" s="4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="10" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H52" s="10" t="s">
         <v>129</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K52" s="66" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L52" s="4" t="s">
         <v>199</v>
@@ -5764,21 +5764,21 @@
       <c r="T52" s="39"/>
       <c r="U52" s="39"/>
       <c r="V52" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W52" s="82" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="53" spans="1:23" s="29" customFormat="1" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="83" t="s">
+        <v>305</v>
+      </c>
+      <c r="B53" s="85" t="s">
+        <v>306</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>307</v>
-      </c>
-      <c r="B53" s="85" t="s">
-        <v>308</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>309</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>74</v>
@@ -5786,13 +5786,13 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="10" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H53" s="24" t="s">
         <v>119</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J53" s="4" t="s">
         <v>185</v>
@@ -5820,10 +5820,10 @@
       <c r="T53" s="33"/>
       <c r="U53" s="33"/>
       <c r="V53" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W53" s="82" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="54" spans="1:23" s="29" customFormat="1" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -5850,13 +5850,13 @@
         <v>181</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J54" s="4" t="s">
         <v>190</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L54" s="8" t="s">
         <v>199</v>
@@ -5887,10 +5887,10 @@
       </c>
       <c r="U54" s="5"/>
       <c r="V54" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="W54" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="55" spans="1:23" s="29" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -5919,13 +5919,13 @@
         <v>181</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J55" s="22" t="s">
         <v>191</v>
       </c>
       <c r="K55" s="22" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L55" s="63" t="s">
         <v>199</v>
@@ -5952,10 +5952,10 @@
       <c r="T55" s="20"/>
       <c r="U55" s="20"/>
       <c r="V55" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W55" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="56" spans="1:23" s="26" customFormat="1" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -5984,13 +5984,13 @@
         <v>181</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J56" s="22" t="s">
         <v>191</v>
       </c>
       <c r="K56" s="22" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L56" s="63" t="s">
         <v>199</v>
@@ -6017,10 +6017,10 @@
       <c r="T56" s="20"/>
       <c r="U56" s="20"/>
       <c r="V56" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W56" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="57" spans="1:23" s="26" customFormat="1" ht="225.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -6049,13 +6049,13 @@
         <v>129</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J57" s="22" t="s">
         <v>191</v>
       </c>
       <c r="K57" s="22" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L57" s="33" t="s">
         <v>199</v>
@@ -6082,10 +6082,10 @@
       <c r="T57" s="20"/>
       <c r="U57" s="20"/>
       <c r="V57" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W57" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="58" spans="1:23" s="26" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -6114,13 +6114,13 @@
         <v>181</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J58" s="22" t="s">
         <v>191</v>
       </c>
       <c r="K58" s="22" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L58" s="33" t="s">
         <v>199</v>
@@ -6147,10 +6147,10 @@
       <c r="T58" s="20"/>
       <c r="U58" s="20"/>
       <c r="V58" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W58" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="59" spans="1:23" s="26" customFormat="1" ht="157.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -6179,13 +6179,13 @@
         <v>181</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J59" s="22" t="s">
         <v>191</v>
       </c>
       <c r="K59" s="22" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L59" s="33" t="s">
         <v>199</v>
@@ -6212,10 +6212,10 @@
       <c r="T59" s="20"/>
       <c r="U59" s="20"/>
       <c r="V59" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W59" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="60" spans="1:23" s="26" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -6244,13 +6244,13 @@
         <v>129</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J60" s="22" t="s">
         <v>191</v>
       </c>
       <c r="K60" s="22" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L60" s="33" t="s">
         <v>199</v>
@@ -6277,10 +6277,10 @@
       <c r="T60" s="20"/>
       <c r="U60" s="20"/>
       <c r="V60" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W60" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="61" spans="1:23" s="26" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -6309,13 +6309,13 @@
         <v>181</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J61" s="4" t="s">
         <v>192</v>
       </c>
       <c r="K61" s="4" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L61" s="4" t="s">
         <v>199</v>
@@ -6343,15 +6343,15 @@
         <v>215</v>
       </c>
       <c r="V61" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W61" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="62" spans="1:23" s="26" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B62" s="40" t="s">
         <v>113</v>
@@ -6360,7 +6360,7 @@
         <v>114</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E62" s="4">
         <v>503</v>
@@ -6375,13 +6375,13 @@
         <v>181</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J62" s="4" t="s">
         <v>187</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L62" s="8" t="s">
         <v>199</v>
@@ -6409,10 +6409,10 @@
       <c r="T62" s="5"/>
       <c r="U62" s="5"/>
       <c r="V62" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="W62" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="63" spans="1:23" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -6441,13 +6441,13 @@
         <v>129</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J63" s="22" t="s">
         <v>193</v>
       </c>
       <c r="K63" s="22" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L63" s="63" t="s">
         <v>200</v>
@@ -6474,10 +6474,10 @@
       <c r="T63" s="33"/>
       <c r="U63" s="33"/>
       <c r="V63" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W63" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="64" spans="1:23" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -6506,13 +6506,13 @@
         <v>129</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J64" s="22" t="s">
         <v>193</v>
       </c>
       <c r="K64" s="22" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L64" s="63" t="s">
         <v>200</v>
@@ -6539,10 +6539,10 @@
       <c r="T64" s="33"/>
       <c r="U64" s="33"/>
       <c r="V64" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W64" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="65" spans="1:23" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -6571,13 +6571,13 @@
         <v>129</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J65" s="33" t="s">
         <v>193</v>
       </c>
       <c r="K65" s="33" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L65" s="63" t="s">
         <v>200</v>
@@ -6604,10 +6604,10 @@
       <c r="T65" s="33"/>
       <c r="U65" s="33"/>
       <c r="V65" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W65" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="66" spans="1:23" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -6636,13 +6636,13 @@
         <v>129</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J66" s="33" t="s">
         <v>193</v>
       </c>
       <c r="K66" s="33" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L66" s="63" t="s">
         <v>200</v>
@@ -6669,10 +6669,10 @@
       <c r="T66" s="33"/>
       <c r="U66" s="33"/>
       <c r="V66" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W66" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="67" spans="1:23" s="26" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -6680,13 +6680,13 @@
         <v>42</v>
       </c>
       <c r="B67" s="41" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C67" s="42" t="s">
         <v>65</v>
       </c>
       <c r="D67" s="42" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E67" s="56">
         <v>3820</v>
@@ -6701,13 +6701,13 @@
         <v>181</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J67" s="4" t="s">
         <v>194</v>
       </c>
       <c r="K67" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L67" s="8" t="s">
         <v>199</v>
@@ -6733,10 +6733,10 @@
       <c r="T67" s="28"/>
       <c r="U67" s="28"/>
       <c r="V67" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W67" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="68" spans="1:23" s="26" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -6765,13 +6765,13 @@
         <v>181</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K68" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="L68" s="8" t="s">
         <v>199</v>
@@ -6797,10 +6797,10 @@
       <c r="T68" s="5"/>
       <c r="U68" s="5"/>
       <c r="V68" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W68" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="69" spans="1:23" s="26" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -6829,13 +6829,13 @@
         <v>181</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K69" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="L69" s="8" t="s">
         <v>199</v>
@@ -6861,18 +6861,18 @@
       <c r="T69" s="5"/>
       <c r="U69" s="5"/>
       <c r="V69" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W69" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="70" spans="1:23" s="26" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A70" s="83" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B70" s="85" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>25</v>
@@ -6883,19 +6883,19 @@
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
       <c r="G70" s="10" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H70" s="10" t="s">
         <v>181</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J70" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K70" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="L70" s="8" t="s">
         <v>199</v>
@@ -6922,18 +6922,18 @@
       <c r="T70" s="39"/>
       <c r="U70" s="39"/>
       <c r="V70" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W70" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="71" spans="1:23" s="26" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A71" s="83" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B71" s="85" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>25</v>
@@ -6944,19 +6944,19 @@
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
       <c r="G71" s="10" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H71" s="10" t="s">
         <v>181</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J71" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K71" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="L71" s="8" t="s">
         <v>199</v>
@@ -6983,10 +6983,10 @@
       <c r="T71" s="33"/>
       <c r="U71" s="33"/>
       <c r="V71" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W71" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="72" spans="1:23" s="26" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -7015,13 +7015,13 @@
         <v>181</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J72" s="33" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K72" s="33" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="L72" s="63" t="s">
         <v>199</v>
@@ -7047,10 +7047,10 @@
       <c r="T72" s="33"/>
       <c r="U72" s="33"/>
       <c r="V72" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W72" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="73" spans="1:23" s="26" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -7079,13 +7079,13 @@
         <v>149</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J73" s="33" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K73" s="33" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="L73" s="63" t="s">
         <v>199</v>
@@ -7111,10 +7111,10 @@
       <c r="T73" s="33"/>
       <c r="U73" s="33"/>
       <c r="V73" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W73" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="74" spans="1:23" s="26" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -7143,13 +7143,13 @@
         <v>149</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J74" s="33" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K74" s="33" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="L74" s="63" t="s">
         <v>199</v>
@@ -7175,10 +7175,10 @@
       <c r="T74" s="33"/>
       <c r="U74" s="33"/>
       <c r="V74" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W74" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="75" spans="1:23" s="26" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -7207,7 +7207,7 @@
         <v>119</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J75" s="33" t="s">
         <v>185</v>
@@ -7239,10 +7239,10 @@
       <c r="T75" s="24"/>
       <c r="U75" s="34"/>
       <c r="V75" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W75" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="76" spans="1:23" s="26" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -7265,13 +7265,13 @@
         <v>2</v>
       </c>
       <c r="G76" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H76" s="24" t="s">
         <v>119</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J76" s="33" t="s">
         <v>185</v>
@@ -7303,10 +7303,10 @@
       <c r="T76" s="24"/>
       <c r="U76" s="34"/>
       <c r="V76" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W76" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="77" spans="1:23" s="26" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -7335,7 +7335,7 @@
         <v>119</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J77" s="33" t="s">
         <v>185</v>
@@ -7367,10 +7367,10 @@
       <c r="T77" s="24"/>
       <c r="U77" s="34"/>
       <c r="V77" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W77" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="78" spans="1:23" s="64" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -7399,7 +7399,7 @@
         <v>121</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J78" s="33" t="s">
         <v>185</v>
@@ -7431,10 +7431,10 @@
       <c r="T78" s="24"/>
       <c r="U78" s="34"/>
       <c r="V78" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W78" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="79" spans="1:23" s="26" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -7463,13 +7463,13 @@
         <v>181</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J79" s="15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K79" s="15" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L79" s="88" t="s">
         <v>199</v>
@@ -7495,10 +7495,10 @@
       <c r="T79" s="16"/>
       <c r="U79" s="16"/>
       <c r="V79" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W79" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="80" spans="1:23" s="29" customFormat="1" ht="126" customHeight="1" x14ac:dyDescent="0.3">
@@ -7527,13 +7527,13 @@
         <v>129</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J80" s="15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K80" s="15" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L80" s="88" t="s">
         <v>199</v>
@@ -7560,10 +7560,10 @@
       <c r="T80" s="16"/>
       <c r="U80" s="16"/>
       <c r="V80" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W80" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="81" spans="1:23" s="29" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.3">
@@ -7592,13 +7592,13 @@
         <v>181</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J81" s="15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K81" s="15" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L81" s="88" t="s">
         <v>199</v>
@@ -7624,10 +7624,10 @@
       <c r="T81" s="16"/>
       <c r="U81" s="16"/>
       <c r="V81" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W81" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="82" spans="1:23" s="29" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -7656,13 +7656,13 @@
         <v>129</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J82" s="15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K82" s="15" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L82" s="88" t="s">
         <v>199</v>
@@ -7689,10 +7689,10 @@
       <c r="T82" s="16"/>
       <c r="U82" s="16"/>
       <c r="V82" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W82" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="83" spans="1:23" s="29" customFormat="1" ht="222.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -7706,7 +7706,7 @@
         <v>107</v>
       </c>
       <c r="D83" s="102" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E83" s="33">
         <v>528</v>
@@ -7715,13 +7715,13 @@
         <v>17</v>
       </c>
       <c r="G83" s="33" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="H83" s="49" t="s">
         <v>181</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J83" s="33" t="s">
         <v>185</v>
@@ -7744,10 +7744,10 @@
       <c r="T83" s="33"/>
       <c r="U83" s="33"/>
       <c r="V83" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W83" s="82" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="84" spans="1:23" s="26" customFormat="1" ht="223.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7761,7 +7761,7 @@
         <v>107</v>
       </c>
       <c r="D84" s="94" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E84" s="22">
         <v>528</v>
@@ -7770,13 +7770,13 @@
         <v>17</v>
       </c>
       <c r="G84" s="33" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H84" s="49" t="s">
         <v>181</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J84" s="33" t="s">
         <v>185</v>
@@ -7799,10 +7799,10 @@
       <c r="T84" s="33"/>
       <c r="U84" s="33"/>
       <c r="V84" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W84" s="82" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="85" spans="1:23" s="67" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -7831,13 +7831,13 @@
         <v>181</v>
       </c>
       <c r="I85" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J85" s="33" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K85" s="33" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L85" s="63" t="s">
         <v>199</v>
@@ -7865,15 +7865,15 @@
         <v>239</v>
       </c>
       <c r="V85" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W85" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="86" spans="1:23" s="67" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>1</v>
@@ -7897,7 +7897,7 @@
         <v>181</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J86" s="5" t="s">
         <v>185</v>
@@ -7931,15 +7931,15 @@
       <c r="T86" s="5"/>
       <c r="U86" s="5"/>
       <c r="V86" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W86" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="87" spans="1:23" s="26" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>1</v>
@@ -7963,7 +7963,7 @@
         <v>119</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J87" s="5" t="s">
         <v>185</v>
@@ -7997,15 +7997,15 @@
       <c r="T87" s="5"/>
       <c r="U87" s="5"/>
       <c r="V87" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W87" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="88" spans="1:23" s="26" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>1</v>
@@ -8029,7 +8029,7 @@
         <v>119</v>
       </c>
       <c r="I88" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J88" s="5" t="s">
         <v>185</v>
@@ -8063,10 +8063,10 @@
       <c r="T88" s="5"/>
       <c r="U88" s="5"/>
       <c r="V88" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W88" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="89" spans="1:23" s="29" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -8089,19 +8089,19 @@
         <v>33</v>
       </c>
       <c r="G89" s="33" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H89" s="33" t="s">
         <v>181</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J89" s="33" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K89" s="33" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="L89" s="63" t="s">
         <v>199</v>
@@ -8127,10 +8127,10 @@
       <c r="T89" s="20"/>
       <c r="U89" s="20"/>
       <c r="V89" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W89" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="90" spans="1:23" s="29" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -8144,7 +8144,7 @@
         <v>101</v>
       </c>
       <c r="D90" s="33" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E90" s="33">
         <v>9</v>
@@ -8153,13 +8153,13 @@
         <v>47</v>
       </c>
       <c r="G90" s="33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H90" s="33" t="s">
         <v>181</v>
       </c>
       <c r="I90" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J90" s="33" t="s">
         <v>195</v>
@@ -8191,15 +8191,15 @@
       </c>
       <c r="U90" s="20"/>
       <c r="V90" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="W90" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="91" spans="1:23" s="26" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A91" s="33" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B91" s="46" t="s">
         <v>12</v>
@@ -8217,13 +8217,13 @@
         <v>35</v>
       </c>
       <c r="G91" s="33" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="H91" s="33" t="s">
         <v>181</v>
       </c>
       <c r="I91" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J91" s="33" t="s">
         <v>185</v>
@@ -8248,18 +8248,18 @@
       <c r="T91" s="33"/>
       <c r="U91" s="33"/>
       <c r="V91" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W91" s="82" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="92" spans="1:23" s="29" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A92" s="83" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B92" s="86" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C92" s="8" t="s">
         <v>27</v>
@@ -8270,13 +8270,13 @@
       <c r="E92" s="5"/>
       <c r="F92" s="4"/>
       <c r="G92" s="10" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H92" s="10" t="s">
         <v>119</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J92" s="5" t="s">
         <v>185</v>
@@ -8308,10 +8308,10 @@
       <c r="T92" s="39"/>
       <c r="U92" s="39"/>
       <c r="V92" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W92" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="93" spans="1:23" s="29" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -8340,13 +8340,13 @@
         <v>181</v>
       </c>
       <c r="I93" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J93" s="33" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K93" s="33" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="L93" s="63" t="s">
         <v>199</v>
@@ -8375,10 +8375,10 @@
         <v>219</v>
       </c>
       <c r="V93" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W93" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="94" spans="1:23" s="29" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -8407,13 +8407,13 @@
         <v>181</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J94" s="33" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K94" s="33" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="L94" s="63" t="s">
         <v>199</v>
@@ -8440,10 +8440,10 @@
       <c r="T94" s="20"/>
       <c r="U94" s="20"/>
       <c r="V94" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W94" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="95" spans="1:23" s="26" customFormat="1" ht="176.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -8472,13 +8472,13 @@
         <v>181</v>
       </c>
       <c r="I95" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J95" s="33" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K95" s="33" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="L95" s="63" t="s">
         <v>199</v>
@@ -8507,10 +8507,10 @@
         <v>220</v>
       </c>
       <c r="V95" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W95" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="96" spans="1:23" s="29" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.3">
@@ -8539,13 +8539,13 @@
         <v>119</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J96" s="33" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K96" s="33" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="L96" s="63" t="s">
         <v>199</v>
@@ -8572,10 +8572,10 @@
       <c r="T96" s="24"/>
       <c r="U96" s="24"/>
       <c r="V96" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W96" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="97" spans="1:27" s="29" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.3">
@@ -8604,13 +8604,13 @@
         <v>119</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J97" s="33" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K97" s="33" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="L97" s="63" t="s">
         <v>199</v>
@@ -8637,10 +8637,10 @@
       <c r="T97" s="24"/>
       <c r="U97" s="24"/>
       <c r="V97" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W97" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="98" spans="1:27" s="29" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.3">
@@ -8669,13 +8669,13 @@
         <v>119</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J98" s="33" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K98" s="33" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="L98" s="63" t="s">
         <v>199</v>
@@ -8702,10 +8702,10 @@
       <c r="T98" s="24"/>
       <c r="U98" s="24"/>
       <c r="V98" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W98" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="99" spans="1:27" s="29" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.3">
@@ -8734,13 +8734,13 @@
         <v>119</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J99" s="33" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K99" s="33" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="L99" s="63" t="s">
         <v>199</v>
@@ -8767,10 +8767,10 @@
       <c r="T99" s="20"/>
       <c r="U99" s="20"/>
       <c r="V99" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W99" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="100" spans="1:27" s="29" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -8799,13 +8799,13 @@
         <v>119</v>
       </c>
       <c r="I100" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J100" s="63" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K100" s="63" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="L100" s="63" t="s">
         <v>199</v>
@@ -8832,10 +8832,10 @@
       <c r="T100" s="24"/>
       <c r="U100" s="24"/>
       <c r="V100" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W100" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="101" spans="1:27" s="29" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -8864,13 +8864,13 @@
         <v>119</v>
       </c>
       <c r="I101" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J101" s="63" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K101" s="63" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="L101" s="63" t="s">
         <v>199</v>
@@ -8897,10 +8897,10 @@
       <c r="T101" s="24"/>
       <c r="U101" s="24"/>
       <c r="V101" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W101" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="102" spans="1:27" s="29" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -8923,13 +8923,13 @@
         <v>44</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H102" s="5" t="s">
         <v>119</v>
       </c>
       <c r="I102" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J102" s="8" t="s">
         <v>185</v>
@@ -8962,10 +8962,10 @@
       <c r="T102" s="28"/>
       <c r="U102" s="28"/>
       <c r="V102" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="W102" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="103" spans="1:27" s="29" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -8994,13 +8994,13 @@
         <v>181</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J103" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K103" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="L103" s="8" t="s">
         <v>199</v>
@@ -9028,10 +9028,10 @@
         <v>10</v>
       </c>
       <c r="V103" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W103" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="104" spans="1:27" s="29" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -9060,7 +9060,7 @@
         <v>119</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J104" s="63" t="s">
         <v>185</v>
@@ -9096,10 +9096,10 @@
       </c>
       <c r="U104" s="33"/>
       <c r="V104" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="W104" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="105" spans="1:27" s="26" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -9128,13 +9128,13 @@
         <v>119</v>
       </c>
       <c r="I105" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J105" s="33" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K105" s="33" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="L105" s="63" t="s">
         <v>199</v>
@@ -9164,15 +9164,15 @@
       </c>
       <c r="U105" s="33"/>
       <c r="V105" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="W105" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="106" spans="1:27" s="26" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B106" s="44" t="s">
         <v>21</v>
@@ -9181,7 +9181,7 @@
         <v>63</v>
       </c>
       <c r="D106" s="42" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E106" s="44">
         <v>100</v>
@@ -9190,19 +9190,19 @@
         <v>34</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H106" s="5" t="s">
         <v>181</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J106" s="5" t="s">
-        <v>266</v>
+        <v>378</v>
       </c>
       <c r="K106" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L106" s="8" t="s">
         <v>199</v>
@@ -9219,15 +9219,15 @@
       <c r="T106" s="5"/>
       <c r="U106" s="5"/>
       <c r="V106" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W106" s="82" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="107" spans="1:27" s="26" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B107" s="44" t="s">
         <v>21</v>
@@ -9236,7 +9236,7 @@
         <v>63</v>
       </c>
       <c r="D107" s="42" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E107" s="44">
         <v>100</v>
@@ -9245,19 +9245,19 @@
         <v>34</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="H107" s="5" t="s">
         <v>181</v>
       </c>
       <c r="I107" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J107" s="5" t="s">
-        <v>266</v>
+        <v>378</v>
       </c>
       <c r="K107" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L107" s="8" t="s">
         <v>199</v>
@@ -9274,15 +9274,15 @@
       <c r="T107" s="5"/>
       <c r="U107" s="5"/>
       <c r="V107" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W107" s="82" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="108" spans="1:27" s="26" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B108" s="44" t="s">
         <v>21</v>
@@ -9291,7 +9291,7 @@
         <v>63</v>
       </c>
       <c r="D108" s="42" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E108" s="44">
         <v>100</v>
@@ -9300,19 +9300,19 @@
         <v>34</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H108" s="5" t="s">
         <v>181</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J108" s="5" t="s">
-        <v>266</v>
+        <v>378</v>
       </c>
       <c r="K108" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L108" s="8" t="s">
         <v>199</v>
@@ -9329,10 +9329,10 @@
       <c r="T108" s="5"/>
       <c r="U108" s="5"/>
       <c r="V108" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W108" s="82" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="109" spans="1:27" s="26" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -9359,7 +9359,7 @@
         <v>181</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J109" s="33" t="s">
         <v>185</v>
@@ -9395,10 +9395,10 @@
       </c>
       <c r="U109" s="33"/>
       <c r="V109" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W109" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="110" spans="1:27" s="26" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -9427,13 +9427,13 @@
         <v>129</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J110" s="33" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K110" s="33" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L110" s="63" t="s">
         <v>199</v>
@@ -9461,18 +9461,18 @@
         <v>221</v>
       </c>
       <c r="V110" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W110" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="111" spans="1:27" ht="72" x14ac:dyDescent="0.3">
       <c r="A111" s="28" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B111" s="86" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>27</v>
@@ -9483,19 +9483,19 @@
       <c r="E111" s="5"/>
       <c r="F111" s="4"/>
       <c r="G111" s="10" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H111" s="10" t="s">
         <v>181</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J111" s="86" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K111" s="65" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L111" s="8" t="s">
         <v>199</v>
@@ -9521,13 +9521,13 @@
       <c r="T111" s="39"/>
       <c r="U111" s="39"/>
       <c r="V111" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W111" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AA111" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="112" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
@@ -9556,7 +9556,7 @@
         <v>121</v>
       </c>
       <c r="I112" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J112" s="5" t="s">
         <v>185</v>
@@ -9589,16 +9589,16 @@
       <c r="T112" s="5"/>
       <c r="U112" s="5"/>
       <c r="V112" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W112" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="X112" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AA112" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="113" spans="1:27" ht="162.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -9627,7 +9627,7 @@
         <v>181</v>
       </c>
       <c r="I113" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J113" s="5" t="s">
         <v>185</v>
@@ -9660,19 +9660,19 @@
       <c r="T113" s="5"/>
       <c r="U113" s="5"/>
       <c r="V113" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W113" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="X113" s="84" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="Y113" s="84" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AA113" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="114" spans="1:27" ht="129.6" x14ac:dyDescent="0.3">
@@ -9695,19 +9695,19 @@
         <v>45</v>
       </c>
       <c r="G114" s="33" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H114" s="33" t="s">
         <v>181</v>
       </c>
       <c r="I114" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J114" s="49" t="s">
         <v>196</v>
       </c>
       <c r="K114" s="49" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L114" s="63" t="s">
         <v>199</v>
@@ -9734,19 +9734,19 @@
       <c r="T114" s="33"/>
       <c r="U114" s="33"/>
       <c r="V114" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="W114" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="X114" s="84" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="Y114" s="84" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AA114" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="115" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
@@ -9769,19 +9769,19 @@
         <v>45</v>
       </c>
       <c r="G115" s="33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H115" s="33" t="s">
         <v>181</v>
       </c>
       <c r="I115" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J115" s="49" t="s">
         <v>196</v>
       </c>
       <c r="K115" s="49" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L115" s="63" t="s">
         <v>199</v>
@@ -9808,13 +9808,13 @@
       <c r="T115" s="33"/>
       <c r="U115" s="33"/>
       <c r="V115" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="W115" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AA115" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="116" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
@@ -9837,19 +9837,19 @@
         <v>42</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H116" s="5" t="s">
         <v>181</v>
       </c>
       <c r="I116" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J116" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K116" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L116" s="8" t="s">
         <v>199</v>
@@ -9876,13 +9876,13 @@
       <c r="T116" s="5"/>
       <c r="U116" s="5"/>
       <c r="V116" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="W116" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AA116" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="117" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
@@ -9905,19 +9905,19 @@
         <v>42</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H117" s="5" t="s">
         <v>181</v>
       </c>
       <c r="I117" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J117" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K117" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L117" s="8" t="s">
         <v>199</v>
@@ -9944,13 +9944,13 @@
       <c r="T117" s="5"/>
       <c r="U117" s="5"/>
       <c r="V117" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="W117" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AA117" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="118" spans="1:27" ht="147.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -9979,13 +9979,13 @@
         <v>119</v>
       </c>
       <c r="I118" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J118" s="65" t="s">
         <v>234</v>
       </c>
       <c r="K118" s="33" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L118" s="80" t="s">
         <v>199</v>
@@ -10019,16 +10019,16 @@
         <v>237</v>
       </c>
       <c r="V118" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W118" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="X118" s="84" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AA118" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="119" spans="1:27" ht="147.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -10057,13 +10057,13 @@
         <v>119</v>
       </c>
       <c r="I119" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J119" s="65" t="s">
         <v>234</v>
       </c>
       <c r="K119" s="65" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L119" s="80" t="s">
         <v>199</v>
@@ -10084,16 +10084,16 @@
         <v>236</v>
       </c>
       <c r="V119" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W119" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="X119" s="84" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AA119" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="120" spans="1:27" ht="147.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -10122,13 +10122,13 @@
         <v>119</v>
       </c>
       <c r="I120" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J120" s="65" t="s">
         <v>234</v>
       </c>
       <c r="K120" s="65" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L120" s="80" t="s">
         <v>199</v>
@@ -10149,16 +10149,16 @@
         <v>235</v>
       </c>
       <c r="V120" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W120" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="X120" s="84" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AA120" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="121" spans="1:27" ht="147.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -10187,7 +10187,7 @@
         <v>181</v>
       </c>
       <c r="I121" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J121" s="57" t="s">
         <v>185</v>
@@ -10227,19 +10227,19 @@
         <v>230</v>
       </c>
       <c r="V121" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W121" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="X121" s="84" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="Y121" s="84" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="AA121" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="122" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
@@ -10268,7 +10268,7 @@
         <v>181</v>
       </c>
       <c r="I122" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J122" s="57" t="s">
         <v>185</v>
@@ -10308,19 +10308,19 @@
         <v>229</v>
       </c>
       <c r="V122" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W122" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="X122" s="84" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="Y122" s="84" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AA122" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -10367,7 +10367,7 @@
         <v>67</v>
       </c>
       <c r="D1" s="83" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E1" s="83" t="s">
         <v>95</v>
@@ -10391,7 +10391,7 @@
         <v>197</v>
       </c>
       <c r="L1" s="83" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M1" s="83" t="s">
         <v>124</v>
@@ -10406,7 +10406,7 @@
         <v>110</v>
       </c>
       <c r="Q1" s="83" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="R1" s="83" t="s">
         <v>207</v>
@@ -10415,87 +10415,87 @@
         <v>206</v>
       </c>
       <c r="T1" s="83" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="U1" s="83" t="s">
         <v>217</v>
       </c>
       <c r="V1" s="83" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="W1" s="83" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="83" customFormat="1" ht="144" x14ac:dyDescent="0.3">
       <c r="A2" s="83" t="s">
+        <v>331</v>
+      </c>
+      <c r="B2" s="83" t="s">
+        <v>332</v>
+      </c>
+      <c r="C2" s="83" t="s">
         <v>333</v>
       </c>
-      <c r="B2" s="83" t="s">
+      <c r="D2" s="83" t="s">
+        <v>333</v>
+      </c>
+      <c r="E2" s="83" t="s">
         <v>334</v>
       </c>
-      <c r="C2" s="83" t="s">
+      <c r="F2" s="83" t="s">
         <v>335</v>
       </c>
-      <c r="D2" s="83" t="s">
-        <v>335</v>
-      </c>
-      <c r="E2" s="83" t="s">
+      <c r="G2" s="83" t="s">
+        <v>337</v>
+      </c>
+      <c r="H2" s="83" t="s">
+        <v>338</v>
+      </c>
+      <c r="I2" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="F2" s="83" t="s">
-        <v>337</v>
-      </c>
-      <c r="G2" s="83" t="s">
+      <c r="J2" s="83" t="s">
         <v>339</v>
       </c>
-      <c r="H2" s="83" t="s">
+      <c r="K2" s="83" t="s">
         <v>340</v>
       </c>
-      <c r="I2" s="83" t="s">
-        <v>338</v>
-      </c>
-      <c r="J2" s="83" t="s">
+      <c r="L2" s="83" t="s">
         <v>341</v>
       </c>
-      <c r="K2" s="83" t="s">
+      <c r="M2" s="83" t="s">
         <v>342</v>
       </c>
-      <c r="L2" s="83" t="s">
+      <c r="N2" s="83" t="s">
         <v>343</v>
       </c>
-      <c r="M2" s="83" t="s">
+      <c r="O2" s="83" t="s">
         <v>344</v>
       </c>
-      <c r="N2" s="83" t="s">
+      <c r="P2" s="83" t="s">
         <v>345</v>
       </c>
-      <c r="O2" s="83" t="s">
+      <c r="Q2" s="83" t="s">
         <v>346</v>
       </c>
-      <c r="P2" s="83" t="s">
+      <c r="R2" s="83" t="s">
         <v>347</v>
       </c>
-      <c r="Q2" s="83" t="s">
+      <c r="S2" s="83" t="s">
+        <v>349</v>
+      </c>
+      <c r="T2" s="83" t="s">
         <v>348</v>
       </c>
-      <c r="R2" s="83" t="s">
-        <v>349</v>
-      </c>
-      <c r="S2" s="83" t="s">
+      <c r="U2" s="83" t="s">
+        <v>350</v>
+      </c>
+      <c r="V2" s="83" t="s">
         <v>351</v>
       </c>
-      <c r="T2" s="83" t="s">
-        <v>350</v>
-      </c>
-      <c r="U2" s="83" t="s">
+      <c r="W2" s="83" t="s">
         <v>352</v>
-      </c>
-      <c r="V2" s="83" t="s">
-        <v>353</v>
-      </c>
-      <c r="W2" s="83" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="4" spans="1:23" s="83" customFormat="1" x14ac:dyDescent="0.3"/>

--- a/data/extraction_grid_scenario.xlsx
+++ b/data/extraction_grid_scenario.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1690" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="361">
   <si>
     <t>The public health implications of the Paris Agreement: a modelling study</t>
   </si>
@@ -877,12 +877,6 @@
     <t>Agriculture, energy, industry, transport, residential, commercial, solvent, waste, shipping, natural burning</t>
   </si>
   <si>
-    <t xml:space="preserve">Sensitivity  experiments  showed that, by 2060, changes in concentrations and population structure would lead to approximately −5,172.7 thousand  and  +2,633.3  thousand  deaths,  respectively. </t>
-  </si>
-  <si>
-    <t>4000 dc prévenus mais RCP 4,5</t>
-  </si>
-  <si>
     <t>Nawaz, 2023</t>
   </si>
   <si>
@@ -901,12 +895,6 @@
     <t>Energy, industry, transport, agriculture, housing</t>
   </si>
   <si>
-    <t>Santiago: transportation, energy generation, and residential combus-tion contribute the most to air pollution related premature deaths</t>
-  </si>
-  <si>
-    <t>Notably, emissions from local streets, energy generation,  residential  firewood  combustion,  construction  machinery  and  highway  emissions  were  the  most  impactful sources to PM2.5 and O3-related premature deaths.</t>
-  </si>
-  <si>
     <t>Costs and health benefits of the rural energy transition to carbon neutrality in China</t>
   </si>
   <si>
@@ -922,9 +910,6 @@
     <t>SSP1_2.6</t>
   </si>
   <si>
-    <t>using projections of per-capita GDP, we found that populations in low- and lower-middle-income regions (predominantly in Africa and Asia) consistently experience the highest PM2.5 exposures across the 21st century in all three scenarios (SSP2-4.5, SSP1-2.6, and SSP1-1.9). The lowest PM2.5 exposures consistently occur in the high-income region (predominantly populations in Europe, North America, and Asia). The proportion of the low- and lower-middle-income populations that remain exposed to PM2.5 concentrations above the WHO AQG at the end of the century (89%–91%) is considerably greater than the proportion of the high-income population (75%–76%)</t>
-  </si>
-  <si>
     <t>Asynergistic approach to air pollution control and carbon neutrality in China can avoid millions of premature deaths annually by 2060</t>
   </si>
   <si>
@@ -937,12 +922,6 @@
     <t>Energy, industry, transport, housing</t>
   </si>
   <si>
-    <t>.Inthenear term(by2030),strict pollution control policies will play dominant roles in the alleviation of PM2.5 pollution and the related health burden. However, end-of-pipe emission control measures may not fully offset the adverse effects of population aging on PM2.5-related health impact. Combining aggressive climate mitigation measures toward an early carbon peak (peak around 2025) will be essential for reducing PM2.5related premature deaths from 2020 to 2030.</t>
-  </si>
-  <si>
-    <t>Compared with the on-time carbon-peak mitigation measures, enhanced early-peak climate mitigation measures could avoid 120,000 (95% CI: 90, 150) premature deaths in 2030 (early peak-net zero-clean air vs. on-time peak-net zero-clean air). substantial additional health benefits mightbegainedifChina’sCO2emissionswereto peak by 2025 rather than 2030—also avoiding nearly 43 Gt CO2 cumulative emissions between 2020 and 2060</t>
-  </si>
-  <si>
     <t>Ortiz, 2023</t>
   </si>
   <si>
@@ -953,39 +932,6 @@
   </si>
   <si>
     <t>VCEA</t>
-  </si>
-  <si>
-    <t>Our analysis shows that completely phasing out of fossil fuel powered electricity production by 2045, as current plans aim and reflected in recent utility projections, will reduce the burden of air quality on vulnerable communities and businesses. benefits of a fossil fuel phaseout in the electric power sector will most benefit communities with a significant share of people living in poverty.</t>
-  </si>
-  <si>
-    <t>Not only do these co-benefits save lives and improve the health and livelihoods of people, they also present significant economic benefits, with the highest estimates showing nearly $350 million in avoided health and health-care costs per year once full shift towards non-carbon emitting generation is achieved in 2045. patterns of land use may have placed polluting power plants in disadvantaged communities throughout the state. The most disadvantaged communities have the most to gain. For instance, counties in the top quintile in percent population living below 150% of the national poverty line can expect to avoid 1.6 times more deaths than those in the bottom quintile.</t>
-  </si>
-  <si>
-    <t>Luo</t>
-  </si>
-  <si>
-    <t>Hata</t>
-  </si>
-  <si>
-    <t>Wang</t>
-  </si>
-  <si>
-    <t>Nawaz</t>
-  </si>
-  <si>
-    <t>Ma</t>
-  </si>
-  <si>
-    <t>Reddington</t>
-  </si>
-  <si>
-    <t>Cheng</t>
-  </si>
-  <si>
-    <t>Ortiz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PM2.5  and  O3  air  quality  from  2020  to  2060  under  SSP5-8.5  pathway  were  simulated  to  be  worse  and  can't  achieve the current air quality standard by 2060 in the studied polluted regions. Relative to SSP1-1.9, in 2060, premature deaths by PM2.5 and O3 would all be higher by 3,366.1 (95% CI: 3,350.4–3,381.7) thousand and 153.9 (95%  CI:  116.4–187.0)  thousand,  respectively, because of population aging. </t>
   </si>
   <si>
     <t>X. Ma, 2023</t>
@@ -2490,11 +2436,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA122"/>
+  <dimension ref="A1:Y122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I87" sqref="I87"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="X75" sqref="X75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2523,7 +2469,7 @@
         <v>67</v>
       </c>
       <c r="D1" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>95</v>
@@ -2538,7 +2484,7 @@
         <v>118</v>
       </c>
       <c r="I1" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="J1" t="s">
         <v>183</v>
@@ -2919,10 +2865,10 @@
     </row>
     <row r="7" spans="1:23" s="29" customFormat="1" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="83" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B7" s="85" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>27</v>
@@ -2933,7 +2879,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="10" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>119</v>
@@ -2942,10 +2888,10 @@
         <v>270</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>199</v>
@@ -3010,7 +2956,7 @@
         <v>186</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>199</v>
@@ -3063,7 +3009,7 @@
         <v>48</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>181</v>
@@ -3120,7 +3066,7 @@
         <v>48</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>181</v>
@@ -3177,7 +3123,7 @@
         <v>48</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>181</v>
@@ -3234,7 +3180,7 @@
         <v>48</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>181</v>
@@ -3303,7 +3249,7 @@
         <v>264</v>
       </c>
       <c r="K13" s="69" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="L13" s="73" t="s">
         <v>199</v>
@@ -3370,7 +3316,7 @@
         <v>264</v>
       </c>
       <c r="K14" s="69" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="L14" s="73" t="s">
         <v>199</v>
@@ -3437,7 +3383,7 @@
         <v>264</v>
       </c>
       <c r="K15" s="69" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="L15" s="73" t="s">
         <v>199</v>
@@ -3504,7 +3450,7 @@
         <v>264</v>
       </c>
       <c r="K16" s="69" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="L16" s="73" t="s">
         <v>199</v>
@@ -3559,7 +3505,7 @@
         <v>31</v>
       </c>
       <c r="G17" s="33" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="H17" s="33" t="s">
         <v>181</v>
@@ -3614,7 +3560,7 @@
         <v>31</v>
       </c>
       <c r="G18" s="33" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="H18" s="33" t="s">
         <v>181</v>
@@ -3669,7 +3615,7 @@
         <v>31</v>
       </c>
       <c r="G19" s="33" t="s">
-        <v>359</v>
+        <v>341</v>
       </c>
       <c r="H19" s="33" t="s">
         <v>181</v>
@@ -3724,7 +3670,7 @@
         <v>31</v>
       </c>
       <c r="G20" s="33" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="H20" s="33" t="s">
         <v>181</v>
@@ -3761,7 +3707,7 @@
     </row>
     <row r="21" spans="1:23" s="36" customFormat="1" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="28" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>13</v>
@@ -3827,7 +3773,7 @@
     </row>
     <row r="22" spans="1:23" s="36" customFormat="1" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="28" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>13</v>
@@ -3902,7 +3848,7 @@
         <v>59</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="E23" s="47">
         <v>3870</v>
@@ -3966,7 +3912,7 @@
         <v>59</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="E24" s="47">
         <v>3870</v>
@@ -3987,7 +3933,7 @@
         <v>204</v>
       </c>
       <c r="K24" s="33" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="L24" s="33" t="s">
         <v>205</v>
@@ -4030,7 +3976,7 @@
         <v>59</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="E25" s="47">
         <v>3870</v>
@@ -4051,7 +3997,7 @@
         <v>204</v>
       </c>
       <c r="K25" s="22" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="L25" s="33" t="s">
         <v>205</v>
@@ -4094,7 +4040,7 @@
         <v>59</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="E26" s="47">
         <v>3870</v>
@@ -4158,7 +4104,7 @@
         <v>59</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="E27" s="47">
         <v>3870</v>
@@ -4179,7 +4125,7 @@
         <v>202</v>
       </c>
       <c r="K27" s="33" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="L27" s="22" t="s">
         <v>202</v>
@@ -4222,7 +4168,7 @@
         <v>59</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="E28" s="47">
         <v>3870</v>
@@ -4243,7 +4189,7 @@
         <v>202</v>
       </c>
       <c r="K28" s="22" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="L28" s="33" t="s">
         <v>202</v>
@@ -4339,7 +4285,7 @@
         <v>60</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="E30" s="23">
         <v>6000</v>
@@ -4426,7 +4372,7 @@
         <v>187</v>
       </c>
       <c r="K31" s="33" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="L31" s="22" t="s">
         <v>199</v>
@@ -4479,7 +4425,7 @@
         <v>43</v>
       </c>
       <c r="G32" s="33" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="H32" s="33" t="s">
         <v>181</v>
@@ -4491,7 +4437,7 @@
         <v>188</v>
       </c>
       <c r="K32" s="33" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="L32" s="22" t="s">
         <v>199</v>
@@ -4534,7 +4480,7 @@
         <v>43</v>
       </c>
       <c r="G33" s="33" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="H33" s="33" t="s">
         <v>181</v>
@@ -4546,7 +4492,7 @@
         <v>188</v>
       </c>
       <c r="K33" s="33" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="L33" s="22" t="s">
         <v>199</v>
@@ -4589,7 +4535,7 @@
         <v>43</v>
       </c>
       <c r="G34" s="33" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
       <c r="H34" s="33" t="s">
         <v>181</v>
@@ -4601,7 +4547,7 @@
         <v>188</v>
       </c>
       <c r="K34" s="33" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="L34" s="22" t="s">
         <v>199</v>
@@ -4644,7 +4590,7 @@
         <v>43</v>
       </c>
       <c r="G35" s="33" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="H35" s="33" t="s">
         <v>181</v>
@@ -4656,7 +4602,7 @@
         <v>188</v>
       </c>
       <c r="K35" s="33" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="L35" s="22" t="s">
         <v>199</v>
@@ -4708,10 +4654,10 @@
         <v>270</v>
       </c>
       <c r="J36" s="33" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="K36" s="33" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="L36" s="22" t="s">
         <v>199</v>
@@ -4772,10 +4718,10 @@
         <v>270</v>
       </c>
       <c r="J37" s="33" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="K37" s="33" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="L37" s="22" t="s">
         <v>199</v>
@@ -4827,7 +4773,7 @@
         <v>46</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>119</v>
@@ -5040,7 +4986,7 @@
         <v>33</v>
       </c>
       <c r="B42" s="70" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="C42" s="73" t="s">
         <v>64</v>
@@ -5110,7 +5056,7 @@
         <v>33</v>
       </c>
       <c r="B43" s="70" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="C43" s="73" t="s">
         <v>64</v>
@@ -5137,7 +5083,7 @@
         <v>203</v>
       </c>
       <c r="K43" s="73" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="L43" s="73" t="s">
         <v>202</v>
@@ -5180,7 +5126,7 @@
         <v>33</v>
       </c>
       <c r="B44" s="70" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="C44" s="73" t="s">
         <v>64</v>
@@ -5250,7 +5196,7 @@
         <v>33</v>
       </c>
       <c r="B45" s="70" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="C45" s="73" t="s">
         <v>64</v>
@@ -5277,7 +5223,7 @@
         <v>203</v>
       </c>
       <c r="K45" s="73" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="L45" s="69" t="s">
         <v>199</v>
@@ -5320,7 +5266,7 @@
         <v>33</v>
       </c>
       <c r="B46" s="70" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="C46" s="73" t="s">
         <v>64</v>
@@ -5390,7 +5336,7 @@
         <v>240</v>
       </c>
       <c r="B47" s="70" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="C47" s="73" t="s">
         <v>64</v>
@@ -5460,7 +5406,7 @@
         <v>240</v>
       </c>
       <c r="B48" s="70" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="C48" s="69" t="s">
         <v>64</v>
@@ -5487,7 +5433,7 @@
         <v>203</v>
       </c>
       <c r="K48" s="69" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="L48" s="89" t="s">
         <v>202</v>
@@ -5530,7 +5476,7 @@
         <v>240</v>
       </c>
       <c r="B49" s="70" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="C49" s="73" t="s">
         <v>64</v>
@@ -5557,7 +5503,7 @@
         <v>203</v>
       </c>
       <c r="K49" s="73" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="L49" s="73" t="s">
         <v>199</v>
@@ -5606,7 +5552,7 @@
         <v>81</v>
       </c>
       <c r="D50" s="51" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="E50" s="52">
         <v>4680</v>
@@ -5627,7 +5573,7 @@
         <v>189</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="L50" s="4" t="s">
         <v>199</v>
@@ -5661,21 +5607,21 @@
     </row>
     <row r="51" spans="1:23" s="26" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A51" s="83" t="s">
+        <v>283</v>
+      </c>
+      <c r="B51" s="85" t="s">
+        <v>284</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="B51" s="85" t="s">
-        <v>286</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>287</v>
-      </c>
       <c r="D51" s="4" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="10" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H51" s="10" t="s">
         <v>181</v>
@@ -5684,10 +5630,10 @@
         <v>271</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K51" s="66" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="L51" s="4" t="s">
         <v>199</v>
@@ -5716,21 +5662,21 @@
     </row>
     <row r="52" spans="1:23" s="26" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A52" s="83" t="s">
+        <v>283</v>
+      </c>
+      <c r="B52" s="85" t="s">
+        <v>284</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="B52" s="85" t="s">
-        <v>286</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>287</v>
-      </c>
       <c r="D52" s="4" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="10" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H52" s="10" t="s">
         <v>129</v>
@@ -5739,10 +5685,10 @@
         <v>271</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K52" s="66" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="L52" s="4" t="s">
         <v>199</v>
@@ -5772,13 +5718,13 @@
     </row>
     <row r="53" spans="1:23" s="29" customFormat="1" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="83" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="B53" s="85" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>74</v>
@@ -5786,7 +5732,7 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="10" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="H53" s="24" t="s">
         <v>119</v>
@@ -5856,7 +5802,7 @@
         <v>190</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="L54" s="8" t="s">
         <v>199</v>
@@ -5925,7 +5871,7 @@
         <v>191</v>
       </c>
       <c r="K55" s="22" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="L55" s="63" t="s">
         <v>199</v>
@@ -5990,7 +5936,7 @@
         <v>191</v>
       </c>
       <c r="K56" s="22" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="L56" s="63" t="s">
         <v>199</v>
@@ -6055,7 +6001,7 @@
         <v>191</v>
       </c>
       <c r="K57" s="22" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="L57" s="33" t="s">
         <v>199</v>
@@ -6120,7 +6066,7 @@
         <v>191</v>
       </c>
       <c r="K58" s="22" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="L58" s="33" t="s">
         <v>199</v>
@@ -6185,7 +6131,7 @@
         <v>191</v>
       </c>
       <c r="K59" s="22" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="L59" s="33" t="s">
         <v>199</v>
@@ -6250,7 +6196,7 @@
         <v>191</v>
       </c>
       <c r="K60" s="22" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="L60" s="33" t="s">
         <v>199</v>
@@ -6315,7 +6261,7 @@
         <v>192</v>
       </c>
       <c r="K61" s="4" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="L61" s="4" t="s">
         <v>199</v>
@@ -6360,7 +6306,7 @@
         <v>114</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="E62" s="4">
         <v>503</v>
@@ -6381,7 +6327,7 @@
         <v>187</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="L62" s="8" t="s">
         <v>199</v>
@@ -6447,7 +6393,7 @@
         <v>193</v>
       </c>
       <c r="K63" s="22" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="L63" s="63" t="s">
         <v>200</v>
@@ -6512,7 +6458,7 @@
         <v>193</v>
       </c>
       <c r="K64" s="22" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="L64" s="63" t="s">
         <v>200</v>
@@ -6577,7 +6523,7 @@
         <v>193</v>
       </c>
       <c r="K65" s="33" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="L65" s="63" t="s">
         <v>200</v>
@@ -6642,7 +6588,7 @@
         <v>193</v>
       </c>
       <c r="K66" s="33" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="L66" s="63" t="s">
         <v>200</v>
@@ -6680,13 +6626,13 @@
         <v>42</v>
       </c>
       <c r="B67" s="41" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="C67" s="42" t="s">
         <v>65</v>
       </c>
       <c r="D67" s="42" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="E67" s="56">
         <v>3820</v>
@@ -6707,7 +6653,7 @@
         <v>194</v>
       </c>
       <c r="K67" s="5" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="L67" s="8" t="s">
         <v>199</v>
@@ -6869,10 +6815,10 @@
     </row>
     <row r="70" spans="1:23" s="26" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A70" s="83" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B70" s="85" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>25</v>
@@ -6883,7 +6829,7 @@
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
       <c r="G70" s="10" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H70" s="10" t="s">
         <v>181</v>
@@ -6930,10 +6876,10 @@
     </row>
     <row r="71" spans="1:23" s="26" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A71" s="83" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B71" s="85" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>25</v>
@@ -7469,7 +7415,7 @@
         <v>265</v>
       </c>
       <c r="K79" s="15" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="L79" s="88" t="s">
         <v>199</v>
@@ -7533,7 +7479,7 @@
         <v>265</v>
       </c>
       <c r="K80" s="15" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="L80" s="88" t="s">
         <v>199</v>
@@ -7598,7 +7544,7 @@
         <v>265</v>
       </c>
       <c r="K81" s="15" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="L81" s="88" t="s">
         <v>199</v>
@@ -7662,7 +7608,7 @@
         <v>265</v>
       </c>
       <c r="K82" s="15" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="L82" s="88" t="s">
         <v>199</v>
@@ -7706,7 +7652,7 @@
         <v>107</v>
       </c>
       <c r="D83" s="102" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="E83" s="33">
         <v>528</v>
@@ -7715,7 +7661,7 @@
         <v>17</v>
       </c>
       <c r="G83" s="33" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="H83" s="49" t="s">
         <v>181</v>
@@ -7761,7 +7707,7 @@
         <v>107</v>
       </c>
       <c r="D84" s="94" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="E84" s="22">
         <v>528</v>
@@ -7770,7 +7716,7 @@
         <v>17</v>
       </c>
       <c r="G84" s="33" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="H84" s="49" t="s">
         <v>181</v>
@@ -7837,7 +7783,7 @@
         <v>266</v>
       </c>
       <c r="K85" s="33" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="L85" s="63" t="s">
         <v>199</v>
@@ -7873,7 +7819,7 @@
     </row>
     <row r="86" spans="1:23" s="67" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>1</v>
@@ -7939,7 +7885,7 @@
     </row>
     <row r="87" spans="1:23" s="26" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>1</v>
@@ -8005,7 +7951,7 @@
     </row>
     <row r="88" spans="1:23" s="26" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>1</v>
@@ -8089,7 +8035,7 @@
         <v>33</v>
       </c>
       <c r="G89" s="33" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="H89" s="33" t="s">
         <v>181</v>
@@ -8144,7 +8090,7 @@
         <v>101</v>
       </c>
       <c r="D90" s="33" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="E90" s="33">
         <v>9</v>
@@ -8199,7 +8145,7 @@
     </row>
     <row r="91" spans="1:23" s="26" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A91" s="33" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="B91" s="46" t="s">
         <v>12</v>
@@ -8217,7 +8163,7 @@
         <v>35</v>
       </c>
       <c r="G91" s="33" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="H91" s="33" t="s">
         <v>181</v>
@@ -8256,10 +8202,10 @@
     </row>
     <row r="92" spans="1:23" s="29" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A92" s="83" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="B92" s="86" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C92" s="8" t="s">
         <v>27</v>
@@ -8270,7 +8216,7 @@
       <c r="E92" s="5"/>
       <c r="F92" s="4"/>
       <c r="G92" s="10" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="H92" s="10" t="s">
         <v>119</v>
@@ -8578,7 +8524,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="97" spans="1:27" s="29" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:23" s="29" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="20" t="s">
         <v>40</v>
       </c>
@@ -8643,7 +8589,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="98" spans="1:27" s="29" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:23" s="29" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="20" t="s">
         <v>40</v>
       </c>
@@ -8708,7 +8654,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="99" spans="1:27" s="29" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:23" s="29" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="20" t="s">
         <v>40</v>
       </c>
@@ -8773,7 +8719,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="100" spans="1:27" s="29" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:23" s="29" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A100" s="20" t="s">
         <v>40</v>
       </c>
@@ -8838,7 +8784,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="101" spans="1:27" s="29" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:23" s="29" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A101" s="20" t="s">
         <v>40</v>
       </c>
@@ -8903,7 +8849,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="102" spans="1:27" s="29" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:23" s="29" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
         <v>36</v>
       </c>
@@ -8968,7 +8914,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="103" spans="1:27" s="29" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:23" s="29" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
         <v>92</v>
       </c>
@@ -9034,7 +8980,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="104" spans="1:27" s="29" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:23" s="29" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A104" s="33" t="s">
         <v>69</v>
       </c>
@@ -9102,7 +9048,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="105" spans="1:27" s="26" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:23" s="26" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A105" s="33" t="s">
         <v>69</v>
       </c>
@@ -9170,9 +9116,9 @@
         <v>270</v>
       </c>
     </row>
-    <row r="106" spans="1:27" s="26" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:23" s="26" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="B106" s="44" t="s">
         <v>21</v>
@@ -9181,7 +9127,7 @@
         <v>63</v>
       </c>
       <c r="D106" s="42" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="E106" s="44">
         <v>100</v>
@@ -9190,7 +9136,7 @@
         <v>34</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="H106" s="5" t="s">
         <v>181</v>
@@ -9199,10 +9145,10 @@
         <v>270</v>
       </c>
       <c r="J106" s="5" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="K106" s="5" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="L106" s="8" t="s">
         <v>199</v>
@@ -9225,9 +9171,9 @@
         <v>271</v>
       </c>
     </row>
-    <row r="107" spans="1:27" s="26" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:23" s="26" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="B107" s="44" t="s">
         <v>21</v>
@@ -9236,7 +9182,7 @@
         <v>63</v>
       </c>
       <c r="D107" s="42" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="E107" s="44">
         <v>100</v>
@@ -9245,7 +9191,7 @@
         <v>34</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="H107" s="5" t="s">
         <v>181</v>
@@ -9254,10 +9200,10 @@
         <v>270</v>
       </c>
       <c r="J107" s="5" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="K107" s="5" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="L107" s="8" t="s">
         <v>199</v>
@@ -9280,9 +9226,9 @@
         <v>271</v>
       </c>
     </row>
-    <row r="108" spans="1:27" s="26" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:23" s="26" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="B108" s="44" t="s">
         <v>21</v>
@@ -9291,7 +9237,7 @@
         <v>63</v>
       </c>
       <c r="D108" s="42" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="E108" s="44">
         <v>100</v>
@@ -9300,7 +9246,7 @@
         <v>34</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="H108" s="5" t="s">
         <v>181</v>
@@ -9309,10 +9255,10 @@
         <v>270</v>
       </c>
       <c r="J108" s="5" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="K108" s="5" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="L108" s="8" t="s">
         <v>199</v>
@@ -9335,7 +9281,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="109" spans="1:27" s="26" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:23" s="26" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A109" s="20" t="s">
         <v>51</v>
       </c>
@@ -9401,7 +9347,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="110" spans="1:27" s="26" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:23" s="26" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A110" s="61" t="s">
         <v>77</v>
       </c>
@@ -9433,7 +9379,7 @@
         <v>267</v>
       </c>
       <c r="K110" s="33" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="L110" s="63" t="s">
         <v>199</v>
@@ -9467,9 +9413,9 @@
         <v>270</v>
       </c>
     </row>
-    <row r="111" spans="1:27" ht="72" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:23" ht="72" x14ac:dyDescent="0.3">
       <c r="A111" s="28" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="B111" s="86" t="s">
         <v>280</v>
@@ -9495,7 +9441,7 @@
         <v>282</v>
       </c>
       <c r="K111" s="65" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="L111" s="8" t="s">
         <v>199</v>
@@ -9526,11 +9472,8 @@
       <c r="W111" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="AA111" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="112" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
         <v>89</v>
       </c>
@@ -9594,14 +9537,8 @@
       <c r="W112" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="X112" t="s">
-        <v>284</v>
-      </c>
-      <c r="AA112" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="113" spans="1:27" ht="162.6" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:25" ht="162.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
         <v>89</v>
       </c>
@@ -9665,17 +9602,10 @@
       <c r="W113" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="X113" s="84" t="s">
-        <v>283</v>
-      </c>
-      <c r="Y113" s="84" t="s">
-        <v>319</v>
-      </c>
-      <c r="AA113" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="114" spans="1:27" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="X113" s="84"/>
+      <c r="Y113" s="84"/>
+    </row>
+    <row r="114" spans="1:25" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A114" s="20" t="s">
         <v>35</v>
       </c>
@@ -9707,7 +9637,7 @@
         <v>196</v>
       </c>
       <c r="K114" s="49" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="L114" s="63" t="s">
         <v>199</v>
@@ -9739,17 +9669,10 @@
       <c r="W114" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="X114" s="84" t="s">
-        <v>291</v>
-      </c>
-      <c r="Y114" s="84" t="s">
-        <v>292</v>
-      </c>
-      <c r="AA114" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="115" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="X114" s="84"/>
+      <c r="Y114" s="84"/>
+    </row>
+    <row r="115" spans="1:25" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A115" s="20" t="s">
         <v>35</v>
       </c>
@@ -9781,7 +9704,7 @@
         <v>196</v>
       </c>
       <c r="K115" s="49" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="L115" s="63" t="s">
         <v>199</v>
@@ -9813,11 +9736,8 @@
       <c r="W115" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="AA115" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="116" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
         <v>87</v>
       </c>
@@ -9849,7 +9769,7 @@
         <v>268</v>
       </c>
       <c r="K116" s="5" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="L116" s="8" t="s">
         <v>199</v>
@@ -9881,11 +9801,8 @@
       <c r="W116" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="AA116" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="117" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
         <v>87</v>
       </c>
@@ -9917,7 +9834,7 @@
         <v>268</v>
       </c>
       <c r="K117" s="5" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="L117" s="8" t="s">
         <v>199</v>
@@ -9949,11 +9866,8 @@
       <c r="W117" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="AA117" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="118" spans="1:27" ht="147.6" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:25" ht="147.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="33" t="s">
         <v>44</v>
       </c>
@@ -9985,7 +9899,7 @@
         <v>234</v>
       </c>
       <c r="K118" s="33" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="L118" s="80" t="s">
         <v>199</v>
@@ -10024,14 +9938,9 @@
       <c r="W118" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="X118" s="84" t="s">
-        <v>298</v>
-      </c>
-      <c r="AA118" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="119" spans="1:27" ht="147.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="X118" s="84"/>
+    </row>
+    <row r="119" spans="1:25" ht="147.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="33" t="s">
         <v>44</v>
       </c>
@@ -10063,7 +9972,7 @@
         <v>234</v>
       </c>
       <c r="K119" s="65" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="L119" s="80" t="s">
         <v>199</v>
@@ -10089,14 +9998,9 @@
       <c r="W119" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="X119" s="84" t="s">
-        <v>298</v>
-      </c>
-      <c r="AA119" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="120" spans="1:27" ht="147.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="X119" s="84"/>
+    </row>
+    <row r="120" spans="1:25" ht="147.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="33" t="s">
         <v>44</v>
       </c>
@@ -10128,7 +10032,7 @@
         <v>234</v>
       </c>
       <c r="K120" s="65" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="L120" s="80" t="s">
         <v>199</v>
@@ -10154,14 +10058,9 @@
       <c r="W120" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="X120" s="84" t="s">
-        <v>298</v>
-      </c>
-      <c r="AA120" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="121" spans="1:27" ht="147.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="X120" s="84"/>
+    </row>
+    <row r="121" spans="1:25" ht="147.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
         <v>76</v>
       </c>
@@ -10232,17 +10131,10 @@
       <c r="W121" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="X121" s="84" t="s">
-        <v>304</v>
-      </c>
-      <c r="Y121" s="84" t="s">
-        <v>303</v>
-      </c>
-      <c r="AA121" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="122" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="X121" s="84"/>
+      <c r="Y121" s="84"/>
+    </row>
+    <row r="122" spans="1:25" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
         <v>76</v>
       </c>
@@ -10313,15 +10205,8 @@
       <c r="W122" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="X122" s="84" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y122" s="84" t="s">
-        <v>310</v>
-      </c>
-      <c r="AA122" t="s">
-        <v>318</v>
-      </c>
+      <c r="X122" s="84"/>
+      <c r="Y122" s="84"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10367,7 +10252,7 @@
         <v>67</v>
       </c>
       <c r="D1" s="83" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="E1" s="83" t="s">
         <v>95</v>
@@ -10429,73 +10314,73 @@
     </row>
     <row r="2" spans="1:23" s="83" customFormat="1" ht="144" x14ac:dyDescent="0.3">
       <c r="A2" s="83" t="s">
+        <v>313</v>
+      </c>
+      <c r="B2" s="83" t="s">
+        <v>314</v>
+      </c>
+      <c r="C2" s="83" t="s">
+        <v>315</v>
+      </c>
+      <c r="D2" s="83" t="s">
+        <v>315</v>
+      </c>
+      <c r="E2" s="83" t="s">
+        <v>316</v>
+      </c>
+      <c r="F2" s="83" t="s">
+        <v>317</v>
+      </c>
+      <c r="G2" s="83" t="s">
+        <v>319</v>
+      </c>
+      <c r="H2" s="83" t="s">
+        <v>320</v>
+      </c>
+      <c r="I2" s="83" t="s">
+        <v>318</v>
+      </c>
+      <c r="J2" s="83" t="s">
+        <v>321</v>
+      </c>
+      <c r="K2" s="83" t="s">
+        <v>322</v>
+      </c>
+      <c r="L2" s="83" t="s">
+        <v>323</v>
+      </c>
+      <c r="M2" s="83" t="s">
+        <v>324</v>
+      </c>
+      <c r="N2" s="83" t="s">
+        <v>325</v>
+      </c>
+      <c r="O2" s="83" t="s">
+        <v>326</v>
+      </c>
+      <c r="P2" s="83" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q2" s="83" t="s">
+        <v>328</v>
+      </c>
+      <c r="R2" s="83" t="s">
+        <v>329</v>
+      </c>
+      <c r="S2" s="83" t="s">
         <v>331</v>
       </c>
-      <c r="B2" s="83" t="s">
+      <c r="T2" s="83" t="s">
+        <v>330</v>
+      </c>
+      <c r="U2" s="83" t="s">
         <v>332</v>
       </c>
-      <c r="C2" s="83" t="s">
+      <c r="V2" s="83" t="s">
         <v>333</v>
       </c>
-      <c r="D2" s="83" t="s">
-        <v>333</v>
-      </c>
-      <c r="E2" s="83" t="s">
+      <c r="W2" s="83" t="s">
         <v>334</v>
-      </c>
-      <c r="F2" s="83" t="s">
-        <v>335</v>
-      </c>
-      <c r="G2" s="83" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2" s="83" t="s">
-        <v>338</v>
-      </c>
-      <c r="I2" s="83" t="s">
-        <v>336</v>
-      </c>
-      <c r="J2" s="83" t="s">
-        <v>339</v>
-      </c>
-      <c r="K2" s="83" t="s">
-        <v>340</v>
-      </c>
-      <c r="L2" s="83" t="s">
-        <v>341</v>
-      </c>
-      <c r="M2" s="83" t="s">
-        <v>342</v>
-      </c>
-      <c r="N2" s="83" t="s">
-        <v>343</v>
-      </c>
-      <c r="O2" s="83" t="s">
-        <v>344</v>
-      </c>
-      <c r="P2" s="83" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q2" s="83" t="s">
-        <v>346</v>
-      </c>
-      <c r="R2" s="83" t="s">
-        <v>347</v>
-      </c>
-      <c r="S2" s="83" t="s">
-        <v>349</v>
-      </c>
-      <c r="T2" s="83" t="s">
-        <v>348</v>
-      </c>
-      <c r="U2" s="83" t="s">
-        <v>350</v>
-      </c>
-      <c r="V2" s="83" t="s">
-        <v>351</v>
-      </c>
-      <c r="W2" s="83" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="4" spans="1:23" s="83" customFormat="1" x14ac:dyDescent="0.3"/>

--- a/data/extraction_grid_scenario.xlsx
+++ b/data/extraction_grid_scenario.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="374">
   <si>
     <t>The public health implications of the Paris Agreement: a modelling study</t>
   </si>
@@ -1109,6 +1109,47 @@
   </si>
   <si>
     <t>Energy, industry, housing, transport, AFOLU, solvent</t>
+  </si>
+  <si>
+    <t>Shindell, 2018</t>
+  </si>
+  <si>
+    <t>Quantified, localized health benefits of accelerated carbon dioxide emissions reductions</t>
+  </si>
+  <si>
+    <t>Mo, 2022</t>
+  </si>
+  <si>
+    <t>Co-Benefits of Energy Structure Transformation and Pollution
+Control for Air Quality and Public Health until 2050 in
+Guangdong, China</t>
+  </si>
+  <si>
+    <t>Guangdong</t>
+  </si>
+  <si>
+    <t>2Deg</t>
+  </si>
+  <si>
+    <t>2Deg_MTFR</t>
+  </si>
+  <si>
+    <t>Leao, 2022</t>
+  </si>
+  <si>
+    <t>Effect of particulate matter PM2.5 and PM10 on health indicators: climate change scenarios in a Brazilian metropolis</t>
+  </si>
+  <si>
+    <t>Recife</t>
+  </si>
+  <si>
+    <t>Chen, 2018</t>
+  </si>
+  <si>
+    <t>Future ozone-related acute excess mortality under climate and population change scenarios in China: A modeling study</t>
+  </si>
+  <si>
+    <t>RCP4,5</t>
   </si>
 </sst>
 </file>
@@ -2139,8 +2180,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:W122" totalsRowShown="0" dataDxfId="21">
-  <autoFilter ref="A1:W122"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:W127" totalsRowShown="0" dataDxfId="21">
+  <autoFilter ref="A1:W127"/>
   <sortState ref="A2:V122">
     <sortCondition ref="A1:A122"/>
   </sortState>
@@ -2436,11 +2477,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y122"/>
+  <dimension ref="A1:Y127"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X75" sqref="X75"/>
+    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="W126" sqref="W126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10207,6 +10248,271 @@
       </c>
       <c r="X122" s="84"/>
       <c r="Y122" s="84"/>
+    </row>
+    <row r="123" spans="1:25" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A123" s="83" t="s">
+        <v>361</v>
+      </c>
+      <c r="B123" s="83" t="s">
+        <v>362</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E123" s="10"/>
+      <c r="F123" s="4"/>
+      <c r="G123" s="10"/>
+      <c r="H123" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="I123" s="39" t="s">
+        <v>271</v>
+      </c>
+      <c r="J123" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="K123" t="s">
+        <v>272</v>
+      </c>
+      <c r="L123" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="M123" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="N123" s="10">
+        <v>2100</v>
+      </c>
+      <c r="O123" s="10"/>
+      <c r="P123" s="10"/>
+      <c r="Q123" s="10"/>
+      <c r="R123" s="39"/>
+      <c r="S123" s="39"/>
+      <c r="T123" s="39"/>
+      <c r="U123" s="39"/>
+      <c r="V123" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="W123" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="124" spans="1:25" ht="72" x14ac:dyDescent="0.3">
+      <c r="A124" s="83" t="s">
+        <v>363</v>
+      </c>
+      <c r="B124" s="83" t="s">
+        <v>364</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="E124" s="5"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="H124" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="I124" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="J124" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="K124" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="L124" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="M124" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="N124" s="5">
+        <v>2050</v>
+      </c>
+      <c r="O124" s="5">
+        <f>63500-35500</f>
+        <v>28000</v>
+      </c>
+      <c r="P124" s="5"/>
+      <c r="Q124" s="5"/>
+      <c r="R124" s="33"/>
+      <c r="S124" s="33"/>
+      <c r="T124" s="33"/>
+      <c r="U124" s="33"/>
+      <c r="V124" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="W124" s="8" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="125" spans="1:25" ht="72" x14ac:dyDescent="0.3">
+      <c r="A125" s="83" t="s">
+        <v>363</v>
+      </c>
+      <c r="B125" s="83" t="s">
+        <v>364</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="E125" s="5"/>
+      <c r="F125" s="4"/>
+      <c r="G125" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="H125" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="I125" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="J125" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="K125" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="L125" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="M125" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="N125" s="5">
+        <v>2050</v>
+      </c>
+      <c r="O125" s="5">
+        <f>63500-20600</f>
+        <v>42900</v>
+      </c>
+      <c r="P125" s="5"/>
+      <c r="Q125" s="5"/>
+      <c r="R125" s="33"/>
+      <c r="S125" s="33"/>
+      <c r="T125" s="33"/>
+      <c r="U125" s="33"/>
+      <c r="V125" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="W125" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="126" spans="1:25" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A126" s="83" t="s">
+        <v>368</v>
+      </c>
+      <c r="B126" s="83" t="s">
+        <v>369</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="E126" s="10"/>
+      <c r="F126" s="4"/>
+      <c r="G126" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H126" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="I126" s="39" t="s">
+        <v>271</v>
+      </c>
+      <c r="J126" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="K126" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="L126" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="M126" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="N126" s="10"/>
+      <c r="O126" s="10"/>
+      <c r="P126" s="10"/>
+      <c r="Q126" s="10"/>
+      <c r="R126" s="39"/>
+      <c r="S126" s="39"/>
+      <c r="T126" s="39"/>
+      <c r="U126" s="39"/>
+      <c r="V126" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="W126" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="127" spans="1:25" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A127" s="83" t="s">
+        <v>371</v>
+      </c>
+      <c r="B127" s="83" t="s">
+        <v>372</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D127" t="s">
+        <v>27</v>
+      </c>
+      <c r="E127" s="10"/>
+      <c r="F127" s="4"/>
+      <c r="G127" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="H127" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="I127" s="39" t="s">
+        <v>271</v>
+      </c>
+      <c r="J127" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="K127" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="L127" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="M127" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="N127" s="10"/>
+      <c r="O127" s="10"/>
+      <c r="P127" s="10"/>
+      <c r="Q127" s="10"/>
+      <c r="R127" s="39"/>
+      <c r="S127" s="39"/>
+      <c r="T127" s="39"/>
+      <c r="U127" s="39"/>
+      <c r="V127" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="W127" s="4" t="s">
+        <v>271</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/extraction_grid_scenario.xlsx
+++ b/data/extraction_grid_scenario.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="371">
   <si>
     <t>The public health implications of the Paris Agreement: a modelling study</t>
   </si>
@@ -1132,15 +1132,6 @@
   </si>
   <si>
     <t>2Deg_MTFR</t>
-  </si>
-  <si>
-    <t>Leao, 2022</t>
-  </si>
-  <si>
-    <t>Effect of particulate matter PM2.5 and PM10 on health indicators: climate change scenarios in a Brazilian metropolis</t>
-  </si>
-  <si>
-    <t>Recife</t>
   </si>
   <si>
     <t>Chen, 2018</t>
@@ -1331,7 +1322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1643,6 +1634,9 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2180,8 +2174,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:W127" totalsRowShown="0" dataDxfId="21">
-  <autoFilter ref="A1:W127"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:W126" totalsRowShown="0" dataDxfId="21">
+  <autoFilter ref="A1:W126"/>
   <sortState ref="A2:V122">
     <sortCondition ref="A1:A122"/>
   </sortState>
@@ -2477,11 +2471,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y127"/>
+  <dimension ref="A1:Y126"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A120" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W126" sqref="W126"/>
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E124" sqref="E124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10284,11 +10278,19 @@
         <v>199</v>
       </c>
       <c r="N123" s="10">
-        <v>2100</v>
-      </c>
-      <c r="O123" s="10"/>
-      <c r="P123" s="10"/>
-      <c r="Q123" s="10"/>
+        <v>2060</v>
+      </c>
+      <c r="O123" s="10">
+        <f>153000000/80</f>
+        <v>1912500</v>
+      </c>
+      <c r="P123" s="10">
+        <v>102193334</v>
+      </c>
+      <c r="Q123" s="33">
+        <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
+        <v>1.8714527896702148E-2</v>
+      </c>
       <c r="R123" s="39"/>
       <c r="S123" s="39"/>
       <c r="T123" s="39"/>
@@ -10297,7 +10299,7 @@
         <v>257</v>
       </c>
       <c r="W123" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="124" spans="1:25" ht="72" x14ac:dyDescent="0.3">
@@ -10344,7 +10346,7 @@
         <v>28000</v>
       </c>
       <c r="P124" s="5"/>
-      <c r="Q124" s="5"/>
+      <c r="Q124" s="33"/>
       <c r="R124" s="33"/>
       <c r="S124" s="33"/>
       <c r="T124" s="33"/>
@@ -10400,7 +10402,7 @@
         <v>42900</v>
       </c>
       <c r="P125" s="5"/>
-      <c r="Q125" s="5"/>
+      <c r="Q125" s="33"/>
       <c r="R125" s="33"/>
       <c r="S125" s="33"/>
       <c r="T125" s="33"/>
@@ -10420,15 +10422,15 @@
         <v>369</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="D126" s="4" t="s">
-        <v>370</v>
+        <v>27</v>
+      </c>
+      <c r="D126" s="108" t="s">
+        <v>27</v>
       </c>
       <c r="E126" s="10"/>
       <c r="F126" s="4"/>
       <c r="G126" s="10" t="s">
-        <v>125</v>
+        <v>370</v>
       </c>
       <c r="H126" s="10" t="s">
         <v>181</v>
@@ -10448,70 +10450,28 @@
       <c r="M126" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="N126" s="10"/>
-      <c r="O126" s="10"/>
-      <c r="P126" s="10"/>
-      <c r="Q126" s="10"/>
+      <c r="N126" s="10">
+        <v>2054</v>
+      </c>
+      <c r="O126" s="10">
+        <v>3332</v>
+      </c>
+      <c r="P126" s="10">
+        <v>18117694</v>
+      </c>
+      <c r="Q126" s="33">
+        <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
+        <v>1.8390861441858991E-4</v>
+      </c>
       <c r="R126" s="39"/>
       <c r="S126" s="39"/>
       <c r="T126" s="39"/>
       <c r="U126" s="39"/>
       <c r="V126" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W126" s="4" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="127" spans="1:25" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A127" s="83" t="s">
-        <v>371</v>
-      </c>
-      <c r="B127" s="83" t="s">
-        <v>372</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D127" t="s">
-        <v>27</v>
-      </c>
-      <c r="E127" s="10"/>
-      <c r="F127" s="4"/>
-      <c r="G127" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="H127" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="I127" s="39" t="s">
-        <v>271</v>
-      </c>
-      <c r="J127" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="K127" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="L127" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="M127" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="N127" s="10"/>
-      <c r="O127" s="10"/>
-      <c r="P127" s="10"/>
-      <c r="Q127" s="10"/>
-      <c r="R127" s="39"/>
-      <c r="S127" s="39"/>
-      <c r="T127" s="39"/>
-      <c r="U127" s="39"/>
-      <c r="V127" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="W127" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>

--- a/data/extraction_grid_scenario.xlsx
+++ b/data/extraction_grid_scenario.xlsx
@@ -2474,7 +2474,7 @@
   <dimension ref="A1:Y126"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A120" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="E124" sqref="E124"/>
     </sheetView>
   </sheetViews>
